--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E319654B-CA88-49E3-8B3B-448E10F548B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F6E89A-CA43-4D7A-9232-B3708962BAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Einarbeitung des Feedbacks</t>
+  </si>
+  <si>
+    <t>Schreiben von Issues</t>
+  </si>
+  <si>
+    <t>Schreiben einses Glossars / Mapping englisch deutsch</t>
+  </si>
+  <si>
+    <t>Planning next steps</t>
   </si>
 </sst>
 </file>
@@ -528,14 +537,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4:H8"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -652,7 +661,7 @@
         <v>44273</v>
       </c>
       <c r="B8" s="7">
-        <v>1</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -662,24 +671,61 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="8">
+        <v>44277</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="8">
+        <v>44279</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8">
+        <v>44280</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>44282</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="8"/>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uibk\4th\SE\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F6E89A-CA43-4D7A-9232-B3708962BAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26820CE-399A-4B0A-A08F-95FA565E3010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="24300" windowHeight="15435" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -123,6 +123,45 @@
   </si>
   <si>
     <t>Planning next steps</t>
+  </si>
+  <si>
+    <t>14/03/2021</t>
+  </si>
+  <si>
+    <t>16/03/2021</t>
+  </si>
+  <si>
+    <t>18/03/2021</t>
+  </si>
+  <si>
+    <t>22/03/2021</t>
+  </si>
+  <si>
+    <t>24/03/2021</t>
+  </si>
+  <si>
+    <t>25/03/2021</t>
+  </si>
+  <si>
+    <t>27/03/2021</t>
+  </si>
+  <si>
+    <t>28/03/2020</t>
+  </si>
+  <si>
+    <t>Adjusting SW-Architecture to feedback</t>
+  </si>
+  <si>
+    <t>30/03/2020</t>
+  </si>
+  <si>
+    <t>BLE + Java setup on pi</t>
+  </si>
+  <si>
+    <t>IDE Bluetooth setup, timeflip bluetooth docs</t>
+  </si>
+  <si>
+    <t>Timeflip Bluetooth basic queries</t>
   </si>
 </sst>
 </file>
@@ -219,7 +258,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,10 +576,10 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -564,7 +603,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="8">
-        <v>44256</v>
+        <v>44199</v>
       </c>
       <c r="B2" s="7">
         <v>8.3333333333333329E-2</v>
@@ -578,7 +617,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="8">
-        <v>44262</v>
+        <v>44380</v>
       </c>
       <c r="B3" s="7">
         <v>2.7777777777777776E-2</v>
@@ -592,7 +631,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8">
-        <v>44263</v>
+        <v>44411</v>
       </c>
       <c r="B4" s="7">
         <v>5.5555555555555552E-2</v>
@@ -609,7 +648,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8">
-        <v>44267</v>
+        <v>44533</v>
       </c>
       <c r="B5" s="7">
         <v>0.15625</v>
@@ -623,8 +662,8 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8">
-        <v>44269.3</v>
+      <c r="A6" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="7">
         <v>4.1666666666666664E-2</v>
@@ -640,8 +679,8 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8">
-        <v>44271</v>
+      <c r="A7" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="7">
         <v>6.5972222222222224E-2</v>
@@ -657,11 +696,11 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8">
-        <v>44273</v>
+      <c r="A8" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -671,8 +710,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8">
-        <v>44277</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="7">
         <v>4.1666666666666664E-2</v>
@@ -683,8 +722,8 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8">
-        <v>44279</v>
+      <c r="A10" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="7">
         <v>0.1111111111111111</v>
@@ -700,8 +739,8 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8">
-        <v>44280</v>
+      <c r="A11" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="7">
         <v>2.0833333333333332E-2</v>
@@ -714,8 +753,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8">
-        <v>44282</v>
+      <c r="A12" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="B12" s="7">
         <v>4.1666666666666664E-2</v>
@@ -728,24 +767,60 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8">
+        <v>44231</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8"/>
@@ -5694,7 +5769,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uibk\4th\SE\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26820CE-399A-4B0A-A08F-95FA565E3010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3484147-C2D7-4E2A-935C-15CC53A29240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="24300" windowHeight="15435" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-20610" yWindow="2310" windowWidth="20730" windowHeight="11160" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Timeflip Bluetooth basic queries</t>
+  </si>
+  <si>
+    <t>Abstimmung Konzept / Status</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -810,7 +813,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8">
-        <v>44231</v>
+        <v>44288</v>
       </c>
       <c r="B16" s="7">
         <v>8.3333333333333329E-2</v>
@@ -823,9 +826,18 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8">
+        <v>44289</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8"/>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uibk\4th\SE\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3484147-C2D7-4E2A-935C-15CC53A29240}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B83E510-B03A-4BDC-88A3-EF238FF46FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="2310" windowWidth="20730" windowHeight="11160" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21240" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Abstimmung Konzept / Status</t>
+  </si>
+  <si>
+    <t>Pi Bluetooth Kommunikation</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -840,14 +843,32 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>44292</v>
+      </c>
+      <c r="B18" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>44293</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8"/>
@@ -5759,7 +5780,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uibk\4th\SE\g6t3\documentation\timemanagment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B83E510-B03A-4BDC-88A3-EF238FF46FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6751FFE-C8FD-44E4-BA49-BE2D8B6325EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="32640" windowHeight="21240" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +169,24 @@
   <si>
     <t>Pi Bluetooth Kommunikation</t>
   </si>
+  <si>
+    <t>Aktuellen Meilenstein und Issues besprechen / reviewen</t>
+  </si>
+  <si>
+    <t>Refined Bluetooth Main Class</t>
+  </si>
+  <si>
+    <t>Basic WebSocket and Rest API in PairProgramming with Clemens</t>
+  </si>
+  <si>
+    <t>Basic WebSocket and Rest API</t>
+  </si>
+  <si>
+    <t>Bluetooth Functionality</t>
+  </si>
+  <si>
+    <t>Merging Branches, preparing release, preparing presentation</t>
+  </si>
 </sst>
 </file>
 
@@ -248,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -262,9 +280,10 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -828,7 +847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:8">
       <c r="A17" s="8">
         <v>44289</v>
       </c>
@@ -842,7 +861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:8">
       <c r="A18" s="8">
         <v>44292</v>
       </c>
@@ -856,7 +875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:8">
       <c r="A19" s="8">
         <v>44293</v>
       </c>
@@ -870,67 +889,109 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4">
+    <row r="20" spans="1:8">
+      <c r="A20" s="8">
+        <v>44296</v>
+      </c>
+      <c r="B20" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B23" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B24" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8">
+        <v>44299</v>
+      </c>
+      <c r="B25" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="8"/>
       <c r="B29" s="7"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:8">
       <c r="A30" s="8"/>
       <c r="B30" s="7"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:8">
       <c r="A31" s="8"/>
       <c r="B31" s="7"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:8">
       <c r="A32" s="8"/>
       <c r="B32" s="7"/>
       <c r="D32" s="3"/>
@@ -5788,7 +5849,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1000</xm:sqref>
+          <xm:sqref>C2:C21 C23:C25 C29:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5802,7 +5863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6751FFE-C8FD-44E4-BA49-BE2D8B6325EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A680DE2B-D6CD-4E3C-B75F-D81A0DFB1B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="6000" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -187,6 +187,33 @@
   <si>
     <t>Merging Branches, preparing release, preparing presentation</t>
   </si>
+  <si>
+    <t>Statusupdate Besprechung</t>
+  </si>
+  <si>
+    <t>New internal working rules</t>
+  </si>
+  <si>
+    <t>Backend Meeting</t>
+  </si>
+  <si>
+    <t>Reformat Pi code into separate SpringApp</t>
+  </si>
+  <si>
+    <t>Loading the correct Dependencys (starting via mvn spring-boot:run)</t>
+  </si>
+  <si>
+    <t>ReFactoring</t>
+  </si>
+  <si>
+    <t>Rewriting Tests, testing on Pi Hardware</t>
+  </si>
+  <si>
+    <t>Communication Pi - Backend</t>
+  </si>
+  <si>
+    <t>Timesheet / MergeRequests</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,6 +308,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,10 +626,10 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -905,7 +933,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B21" s="7">
         <v>0.1111111111111111</v>
@@ -919,7 +947,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B22" s="7">
         <v>4.1666666666666664E-2</v>
@@ -936,7 +964,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B23" s="7">
         <v>8.3333333333333329E-2</v>
@@ -950,7 +978,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8">
-        <v>44298</v>
+        <v>44297</v>
       </c>
       <c r="B24" s="7">
         <v>8.3333333333333329E-2</v>
@@ -964,7 +992,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8">
-        <v>44299</v>
+        <v>44298</v>
       </c>
       <c r="B25" s="7">
         <v>6.25E-2</v>
@@ -974,6 +1002,48 @@
       </c>
       <c r="D25" s="3" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B26" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -982,34 +1052,88 @@
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B30" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>44303</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>44303</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="B35" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8"/>
@@ -5849,7 +5973,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C21 C23:C25 C29:C1000</xm:sqref>
+          <xm:sqref>C2:C21 C23:C1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A680DE2B-D6CD-4E3C-B75F-D81A0DFB1B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C2C69F-8C9E-45A2-9D60-4DF6E8013466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>Timesheet / MergeRequests</t>
+  </si>
+  <si>
+    <t>Knowledge Transfer Websockets</t>
+  </si>
+  <si>
+    <t>Bei Tests helfen, Websocket Impolementierung</t>
+  </si>
+  <si>
+    <t>Websockets / Cube - Pi - Backend / Tests</t>
   </si>
 </sst>
 </file>
@@ -629,7 +638,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1123,7 +1132,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8">
-        <v>0.77777777777777779</v>
+        <v>44304</v>
       </c>
       <c r="B35" s="7">
         <v>8.3333333333333329E-2</v>
@@ -1136,19 +1145,46 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B36" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8"/>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C2C69F-8C9E-45A2-9D60-4DF6E8013466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3B0F04-06B6-48B4-96A1-8E7B3DECDC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -222,6 +222,21 @@
   </si>
   <si>
     <t>Websockets / Cube - Pi - Backend / Tests</t>
+  </si>
+  <si>
+    <t>Websocket Routing</t>
+  </si>
+  <si>
+    <t>JourFixe</t>
+  </si>
+  <si>
+    <t>Docker Issue PR</t>
+  </si>
+  <si>
+    <t>Websocket Pi Client</t>
+  </si>
+  <si>
+    <t>WebSocket Refactoring + Client + etwas Server</t>
   </si>
 </sst>
 </file>
@@ -635,10 +650,10 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1187,29 +1202,74 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8"/>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3B0F04-06B6-48B4-96A1-8E7B3DECDC94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CED965-6393-4B96-BD29-7F16CE41AC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>Datum</t>
   </si>
@@ -125,36 +125,9 @@
     <t>Planning next steps</t>
   </si>
   <si>
-    <t>14/03/2021</t>
-  </si>
-  <si>
-    <t>16/03/2021</t>
-  </si>
-  <si>
-    <t>18/03/2021</t>
-  </si>
-  <si>
-    <t>22/03/2021</t>
-  </si>
-  <si>
-    <t>24/03/2021</t>
-  </si>
-  <si>
-    <t>25/03/2021</t>
-  </si>
-  <si>
-    <t>27/03/2021</t>
-  </si>
-  <si>
-    <t>28/03/2020</t>
-  </si>
-  <si>
     <t>Adjusting SW-Architecture to feedback</t>
   </si>
   <si>
-    <t>30/03/2020</t>
-  </si>
-  <si>
     <t>BLE + Java setup on pi</t>
   </si>
   <si>
@@ -237,14 +210,51 @@
   </si>
   <si>
     <t>WebSocket Refactoring + Client + etwas Server</t>
+  </si>
+  <si>
+    <t>WebSocket Pi - Backend Disconnect (Different channels)</t>
+  </si>
+  <si>
+    <t>Dissconecting Websockets, Exception handling</t>
+  </si>
+  <si>
+    <t>Using RoomService in Cube Implementation</t>
+  </si>
+  <si>
+    <t>CubeController, CubeService, Offering Methods to search Cube</t>
+  </si>
+  <si>
+    <t>JourFixe, BackendTalk</t>
+  </si>
+  <si>
+    <t>NoteBook Java Infrastructure, Cube API Rest + Websocket</t>
+  </si>
+  <si>
+    <t>API PostMan Test</t>
+  </si>
+  <si>
+    <t>ReFactoring Websocket BLEClient (Handler, Responding vs Initialisation)</t>
+  </si>
+  <si>
+    <t>Fixed yesterdays problem with (Responding vs Initialisation of ws messages)</t>
+  </si>
+  <si>
+    <t>Merging complex, intertwined branches</t>
+  </si>
+  <si>
+    <t>Implementing Feedback on CubeApi</t>
+  </si>
+  <si>
+    <t>Timesheet / Status Report / Documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -317,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -333,6 +343,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:H1001"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -739,8 +750,8 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8" t="s">
-        <v>26</v>
+      <c r="A6" s="8">
+        <v>44269</v>
       </c>
       <c r="B6" s="7">
         <v>4.1666666666666664E-2</v>
@@ -756,8 +767,8 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8" t="s">
-        <v>27</v>
+      <c r="A7" s="8">
+        <v>44271</v>
       </c>
       <c r="B7" s="7">
         <v>6.5972222222222224E-2</v>
@@ -773,8 +784,8 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>28</v>
+      <c r="A8" s="8">
+        <v>44273</v>
       </c>
       <c r="B8" s="7">
         <v>6.25E-2</v>
@@ -787,8 +798,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
+      <c r="A9" s="8">
+        <v>44277</v>
       </c>
       <c r="B9" s="7">
         <v>4.1666666666666664E-2</v>
@@ -799,8 +810,8 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
-        <v>30</v>
+      <c r="A10" s="8">
+        <v>44279</v>
       </c>
       <c r="B10" s="7">
         <v>0.1111111111111111</v>
@@ -816,8 +827,8 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8" t="s">
-        <v>31</v>
+      <c r="A11" s="8">
+        <v>44280</v>
       </c>
       <c r="B11" s="7">
         <v>2.0833333333333332E-2</v>
@@ -830,8 +841,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>32</v>
+      <c r="A12" s="8">
+        <v>44282</v>
       </c>
       <c r="B12" s="7">
         <v>4.1666666666666664E-2</v>
@@ -844,8 +855,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>33</v>
+      <c r="A13" s="8">
+        <v>43918</v>
       </c>
       <c r="B13" s="7">
         <v>3.4722222222222224E-2</v>
@@ -854,12 +865,12 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
-        <v>35</v>
+      <c r="A14" s="8">
+        <v>43920</v>
       </c>
       <c r="B14" s="7">
         <v>0.16666666666666666</v>
@@ -868,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -882,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -896,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -910,7 +921,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -924,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -952,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -966,7 +977,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -980,7 +991,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
@@ -997,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1011,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1025,7 +1036,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1039,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1053,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1067,40 +1078,49 @@
         <v>11</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B29" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8">
         <v>44302</v>
       </c>
       <c r="B30" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="B31" s="7">
         <v>0.125</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1108,233 +1128,351 @@
         <v>44303</v>
       </c>
       <c r="B32" s="7">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="8">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="B33" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="8">
         <v>44304</v>
       </c>
       <c r="B34" s="7">
-        <v>0.11805555555555557</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C36" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8">
-        <v>44304</v>
-      </c>
-      <c r="B35" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="8">
-        <v>44308</v>
-      </c>
-      <c r="B36" s="7">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="8">
-        <v>44309</v>
+        <v>44311</v>
       </c>
       <c r="B37" s="7">
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="8">
-        <v>44311</v>
+        <v>44316</v>
       </c>
       <c r="B38" s="7">
-        <v>0.16666666666666666</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="8">
         <v>44316</v>
       </c>
       <c r="B39" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B40" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8">
-        <v>44316</v>
-      </c>
-      <c r="B40" s="7">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="8">
         <v>44317</v>
       </c>
       <c r="B41" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C42" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8">
-        <v>44317</v>
-      </c>
-      <c r="B42" s="7">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="8">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="B43" s="7">
-        <v>0.1875</v>
+        <v>0.19513888888888889</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="8">
+        <v>44319</v>
+      </c>
+      <c r="B44" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B45" s="7">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B46" s="7">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B47" s="7">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B48" s="7">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B49" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B50" s="7">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B51" s="7">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
-    </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
+      <c r="A56" s="8">
+        <v>44325</v>
+      </c>
       <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8"/>
@@ -6052,12 +6190,7 @@
       <c r="D999" s="3"/>
     </row>
     <row r="1000" spans="1:4">
-      <c r="A1000" s="8"/>
-      <c r="B1000" s="7"/>
-      <c r="D1000" s="3"/>
-    </row>
-    <row r="1001" spans="1:4">
-      <c r="A1001" s="2"/>
+      <c r="A1000" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6069,7 +6202,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C21 C23:C1000</xm:sqref>
+          <xm:sqref>C2:C21 C23:C999</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CED965-6393-4B96-BD29-7F16CE41AC4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F55E99-40B4-4687-A181-CE917FF431E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>Datum</t>
   </si>
@@ -247,6 +247,24 @@
   <si>
     <t>Timesheet / Status Report / Documentation</t>
   </si>
+  <si>
+    <t>GamePlay Sequenzdiagramm , Präsentation Vorbereitung</t>
+  </si>
+  <si>
+    <t>Wüfel Kalibrierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docs, </t>
+  </si>
+  <si>
+    <t>Final Test, Cube Mocking</t>
+  </si>
+  <si>
+    <t>Debugging (Backend Frontend)</t>
+  </si>
+  <si>
+    <t>Final Test v2. Docker Bugs (busy wait)</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +272,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -343,7 +361,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,13 +676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B55"/>
+      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -673,6 +691,7 @@
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="31.5">
@@ -1137,7 +1156,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:14">
       <c r="A33" s="8">
         <v>44304</v>
       </c>
@@ -1151,7 +1170,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:14">
       <c r="A34" s="8">
         <v>44304</v>
       </c>
@@ -1165,7 +1184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:14">
       <c r="A35" s="8">
         <v>44308</v>
       </c>
@@ -1179,7 +1198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:14">
       <c r="A36" s="8">
         <v>44309</v>
       </c>
@@ -1193,7 +1212,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:14">
       <c r="A37" s="8">
         <v>44311</v>
       </c>
@@ -1207,7 +1226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:14">
       <c r="A38" s="8">
         <v>44316</v>
       </c>
@@ -1221,7 +1240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:14">
       <c r="A39" s="8">
         <v>44316</v>
       </c>
@@ -1235,7 +1254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:14">
       <c r="A40" s="8">
         <v>44317</v>
       </c>
@@ -1249,7 +1268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:14">
       <c r="A41" s="8">
         <v>44317</v>
       </c>
@@ -1263,7 +1282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:14">
       <c r="A42" s="8">
         <v>44318</v>
       </c>
@@ -1278,7 +1297,7 @@
       </c>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:14">
       <c r="A43" s="8">
         <v>44319</v>
       </c>
@@ -1293,7 +1312,7 @@
       </c>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:14">
       <c r="A44" s="8">
         <v>44319</v>
       </c>
@@ -1308,7 +1327,7 @@
       </c>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:14">
       <c r="A45" s="8">
         <v>44322</v>
       </c>
@@ -1321,8 +1340,11 @@
       <c r="D45" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="8">
         <v>44322</v>
       </c>
@@ -1335,8 +1357,12 @@
       <c r="D46" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="8">
         <v>44323</v>
       </c>
@@ -1349,8 +1375,9 @@
       <c r="D47" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="8">
         <v>44323</v>
       </c>
@@ -1363,8 +1390,12 @@
       <c r="D48" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="8">
         <v>44323</v>
       </c>
@@ -1378,7 +1409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:11">
       <c r="A50" s="8">
         <v>44323</v>
       </c>
@@ -1391,8 +1422,9 @@
       <c r="D50" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="8">
         <v>44324</v>
       </c>
@@ -1405,8 +1437,9 @@
       <c r="D51" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="8">
         <v>44324</v>
       </c>
@@ -1419,8 +1452,9 @@
       <c r="D52" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="8">
         <v>44325</v>
       </c>
@@ -1433,8 +1467,9 @@
       <c r="D53" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="8">
         <v>44325</v>
       </c>
@@ -1448,7 +1483,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:11">
       <c r="A55" s="8">
         <v>44325</v>
       </c>
@@ -1461,58 +1496,140 @@
       <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="8">
         <v>44325</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="7">
+        <v>8.1250000000000003E-2</v>
+      </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B58" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
       <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="8">
+        <v>44330</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="8">
+        <v>44332</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8"/>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F55E99-40B4-4687-A181-CE917FF431E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA30986-C6CA-4A4B-A15D-60302AACBFEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>Datum</t>
   </si>
@@ -264,6 +264,24 @@
   </si>
   <si>
     <t>Final Test v2. Docker Bugs (busy wait)</t>
+  </si>
+  <si>
+    <t>Helping other team</t>
+  </si>
+  <si>
+    <t>1 First look at other system</t>
+  </si>
+  <si>
+    <t>Problems with pi install + getting help from other team</t>
+  </si>
+  <si>
+    <t>Writing the feedback</t>
+  </si>
+  <si>
+    <t>Feedback annehmen</t>
+  </si>
+  <si>
+    <t>Feedback verwalten -&gt; Issues erstellen</t>
   </si>
 </sst>
 </file>
@@ -345,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -362,6 +380,7 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,10 +698,10 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -694,7 +713,7 @@
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="31.5">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="31.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -708,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="8">
         <v>44199</v>
       </c>
@@ -721,8 +740,9 @@
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>44380</v>
       </c>
@@ -735,8 +755,9 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8">
         <v>44411</v>
       </c>
@@ -752,8 +773,9 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="8">
         <v>44533</v>
       </c>
@@ -767,8 +789,9 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>44269</v>
       </c>
@@ -784,8 +807,9 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="8">
         <v>44271</v>
       </c>
@@ -801,8 +825,9 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>44273</v>
       </c>
@@ -815,8 +840,9 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="8">
         <v>44277</v>
       </c>
@@ -827,8 +853,9 @@
         <v>4</v>
       </c>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="8">
         <v>44279</v>
       </c>
@@ -844,8 +871,9 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="8">
         <v>44280</v>
       </c>
@@ -858,8 +886,9 @@
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="8">
         <v>44282</v>
       </c>
@@ -872,8 +901,9 @@
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="8">
         <v>43918</v>
       </c>
@@ -886,8 +916,9 @@
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="8">
         <v>43920</v>
       </c>
@@ -900,8 +931,9 @@
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="8">
         <v>44287</v>
       </c>
@@ -914,8 +946,9 @@
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="8">
         <v>44288</v>
       </c>
@@ -928,6 +961,7 @@
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8">
@@ -942,6 +976,7 @@
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8">
@@ -956,6 +991,7 @@
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8">
@@ -970,6 +1006,7 @@
       <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8">
@@ -984,6 +1021,7 @@
       <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8">
@@ -998,6 +1036,7 @@
       <c r="D21" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8">
@@ -1014,7 +1053,7 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8">
@@ -1029,6 +1068,7 @@
       <c r="D23" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8">
@@ -1043,6 +1083,7 @@
       <c r="D24" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8">
@@ -1057,6 +1098,7 @@
       <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8">
@@ -1071,6 +1113,7 @@
       <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8">
@@ -1085,6 +1128,7 @@
       <c r="D27" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
@@ -1099,6 +1143,7 @@
       <c r="D28" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8">
@@ -1113,6 +1158,7 @@
       <c r="D29" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8">
@@ -1127,6 +1173,7 @@
       <c r="D30" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8">
@@ -1141,6 +1188,7 @@
       <c r="D31" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8">
@@ -1155,6 +1203,7 @@
       <c r="D32" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="8">
@@ -1169,6 +1218,7 @@
       <c r="D33" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8">
@@ -1183,6 +1233,7 @@
       <c r="D34" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8">
@@ -1197,6 +1248,7 @@
       <c r="D35" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="8">
@@ -1211,6 +1263,7 @@
       <c r="D36" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="8">
@@ -1225,6 +1278,7 @@
       <c r="D37" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="8">
@@ -1239,6 +1293,7 @@
       <c r="D38" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="8">
@@ -1253,6 +1308,7 @@
       <c r="D39" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8">
@@ -1267,6 +1323,7 @@
       <c r="D40" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8">
@@ -1281,6 +1338,7 @@
       <c r="D41" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="8">
@@ -1295,6 +1353,7 @@
       <c r="D42" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="H42" s="12"/>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:14">
@@ -1310,6 +1369,7 @@
       <c r="D43" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="H43" s="12"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:14">
@@ -1325,6 +1385,7 @@
       <c r="D44" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="H44" s="12"/>
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:14">
@@ -1340,6 +1401,7 @@
       <c r="D45" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="H45" s="12"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -1357,6 +1419,7 @@
       <c r="D46" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="H46" s="12"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -1375,6 +1438,7 @@
       <c r="D47" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="H47" s="12"/>
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14">
@@ -1390,6 +1454,7 @@
       <c r="D48" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="H48" s="12"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -1408,6 +1473,7 @@
       <c r="D49" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8">
@@ -1422,6 +1488,7 @@
       <c r="D50" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="H50" s="12"/>
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:11">
@@ -1437,6 +1504,7 @@
       <c r="D51" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="H51" s="12"/>
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:11">
@@ -1452,6 +1520,7 @@
       <c r="D52" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="H52" s="12"/>
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:11">
@@ -1467,6 +1536,7 @@
       <c r="D53" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="H53" s="12"/>
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:11">
@@ -1482,6 +1552,7 @@
       <c r="D54" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8">
@@ -1496,7 +1567,7 @@
       <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H55" s="7"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8">
@@ -1511,7 +1582,7 @@
       <c r="D56" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="8">
@@ -1526,7 +1597,7 @@
       <c r="D57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H57" s="7"/>
+      <c r="H57" s="12"/>
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:11">
@@ -1540,6 +1611,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="3"/>
+      <c r="H58" s="12"/>
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:11">
@@ -1555,6 +1627,7 @@
       <c r="D59" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="H59" s="12"/>
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:11">
@@ -1570,6 +1643,7 @@
       <c r="D60" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="H60" s="12"/>
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11">
@@ -1585,6 +1659,7 @@
       <c r="D61" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="H61" s="12"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
     </row>
@@ -1601,6 +1676,7 @@
       <c r="D62" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="H62" s="12"/>
       <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11">
@@ -1616,6 +1692,7 @@
       <c r="D63" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="8">
@@ -1630,83 +1707,145 @@
       <c r="D64" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="7"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="7"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="8">
+        <v>44333</v>
+      </c>
+      <c r="B65" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="8">
+        <v>44334</v>
+      </c>
+      <c r="B66" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="8">
+        <v>44334</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="8">
+        <v>44335</v>
+      </c>
+      <c r="B68" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="8">
+        <v>44340</v>
+      </c>
+      <c r="B69" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="8">
+        <v>44344</v>
+      </c>
+      <c r="B70" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="8"/>
       <c r="B71" s="7"/>
       <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="8"/>
       <c r="B72" s="7"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:8">
       <c r="A73" s="8"/>
       <c r="B73" s="7"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:8">
       <c r="A74" s="8"/>
       <c r="B74" s="7"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:8">
       <c r="A75" s="8"/>
       <c r="B75" s="7"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:8">
       <c r="A76" s="8"/>
       <c r="B76" s="7"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:8">
       <c r="A77" s="8"/>
       <c r="B77" s="7"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:8">
       <c r="A78" s="8"/>
       <c r="B78" s="7"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:8">
       <c r="A79" s="8"/>
       <c r="B79" s="7"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:8">
       <c r="A80" s="8"/>
       <c r="B80" s="7"/>
       <c r="D80" s="3"/>
@@ -6314,7 +6453,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4555F9B-702D-FD4F-A0B2-5CBE96A3F479}">
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA30986-C6CA-4A4B-A15D-60302AACBFEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B142E17-D039-4BC7-9365-6B2A971D656A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
   <si>
     <t>Datum</t>
   </si>
@@ -282,6 +282,24 @@
   </si>
   <si>
     <t>Feedback verwalten -&gt; Issues erstellen</t>
+  </si>
+  <si>
+    <t>Pi authentication</t>
+  </si>
+  <si>
+    <t>Auth, Cube Reset</t>
+  </si>
+  <si>
+    <t>MergeRequest, Kommunikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MergeRequest </t>
+  </si>
+  <si>
+    <t>MergeRequest statistics</t>
+  </si>
+  <si>
+    <t>CubeReset, Cube Calibration</t>
   </si>
 </sst>
 </file>
@@ -698,10 +716,10 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1800,50 +1818,127 @@
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="8"/>
-      <c r="B71" s="7"/>
+      <c r="A71" s="8">
+        <v>44347</v>
+      </c>
+      <c r="B71" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="8">
+        <v>44348</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="8"/>
-      <c r="B73" s="7"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="8">
+        <v>44349</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="8"/>
-      <c r="B74" s="7"/>
+      <c r="A74" s="8">
+        <v>44354</v>
+      </c>
+      <c r="B74" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
       <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="8"/>
-      <c r="B75" s="7"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="8">
+        <v>44357</v>
+      </c>
+      <c r="B75" s="7">
+        <v>0.15625</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="8"/>
-      <c r="B76" s="7"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="8">
+        <v>44358</v>
+      </c>
+      <c r="B76" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="8"/>
-      <c r="B77" s="7"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="8">
+        <v>44358</v>
+      </c>
+      <c r="B77" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B78" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="8"/>
-      <c r="B79" s="7"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B79" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="8"/>
@@ -6453,7 +6548,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4555F9B-702D-FD4F-A0B2-5CBE96A3F479}">
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>

--- a/documentation/timemanagment/beyer-timemanagement.xlsx
+++ b/documentation/timemanagment/beyer-timemanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Martin\uibk\4th\SoftwareEngineering\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B142E17-D039-4BC7-9365-6B2A971D656A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7EA188-CB6B-4731-9DCE-F67704BE6005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="16080" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
   <si>
     <t>Datum</t>
   </si>
@@ -300,6 +300,21 @@
   </si>
   <si>
     <t>CubeReset, Cube Calibration</t>
+  </si>
+  <si>
+    <t>Cube, FacetRestriction + Storing Calibration</t>
+  </si>
+  <si>
+    <t>Cube + Backend Stability (Timeouts)</t>
+  </si>
+  <si>
+    <t>Zusammentragen</t>
+  </si>
+  <si>
+    <t>Feedback einarbeiten</t>
+  </si>
+  <si>
+    <t>Pi Doc, TimeManagement</t>
   </si>
 </sst>
 </file>
@@ -716,10 +731,10 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1941,54 +1956,138 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
+      <c r="A80" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B80" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="7"/>
+      <c r="A81" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B81" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="8"/>
-      <c r="B82" s="7"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B82" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="8"/>
-      <c r="B83" s="7"/>
+      <c r="A83" s="8">
+        <v>44363</v>
+      </c>
+      <c r="B83" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="8"/>
-      <c r="B84" s="7"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="8">
+        <v>44363</v>
+      </c>
+      <c r="B84" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="8"/>
-      <c r="B85" s="7"/>
-      <c r="D85" s="3"/>
+      <c r="A85" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B85" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="8"/>
-      <c r="B86" s="7"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B86" s="7">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="8"/>
-      <c r="B87" s="7"/>
-      <c r="D87" s="3"/>
+      <c r="A87" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B87" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="8"/>
-      <c r="B88" s="7"/>
-      <c r="D88" s="3"/>
+      <c r="A88" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B88" s="7">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="8"/>
-      <c r="B89" s="7"/>
-      <c r="D89" s="3"/>
+      <c r="A89" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B89" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="8"/>
